--- a/biology/Botanique/Strychnos/Strychnos.xlsx
+++ b/biology/Botanique/Strychnos/Strychnos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Strychnos est un genre de plantes à fleurs dicotylédones de la famille des Loganiaceae, à répartition pantropicale, qui  regroupe environ 170 espèces acceptées.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Strychnos » est un terme latin qui désignait chez Pline la morelle noire (Solanum nigra). Ce terme, emprunté au grec, est dérivé de στρύχνον (strúkhnon) qui désigne, chez plusieurs auteurs grecs de l'Antiquité, plusieurs espèces de plantes toxiques (solanées)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Strychnos » est un terme latin qui désignait chez Pline la morelle noire (Solanum nigra). Ce terme, emprunté au grec, est dérivé de στρύχνον (strúkhnon) qui désigne, chez plusieurs auteurs grecs de l'Antiquité, plusieurs espèces de plantes toxiques (solanées).
 </t>
         </is>
       </c>
@@ -544,17 +558,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Strychnos sont des arbres, des arbustes ou des lianes. Ces dernières sont munies de vrilles axillaires crochues, simples ou doubles, parfois avec des épines axillaires .
-Les feuilles, pétiolées à parfois subsessiles, sont opposées-décussées, au limbe entier, présentant de 3 à 7 nervures près de la base et 1 à 3 paires de nervures secondaires, incurvées près du bord chez certaines espèces. Les stipules sont  absentes ou réduites à une arête ciliée, droite, reliant la base des pétioles[3],[4].
-Les inflorescences sont des cymes thyrsoïdes, axillaires ou terminales, simples ou paniculées, entourées de bractées en écailles. Les fleurs, pédicellées ou sessiles, ont une symétrie tétra- ou pentamère, et présentent un calice composé de 4 ou 5 lobes, parfois très profondément découpés, et une corolle en tube, campanulée ou en forme de plateau, avec 4 ou 5 lobes, à préfloraison valvaire. Les étamines, au nombre de 4 ou 5, à filaments courts, généralement filiformes, sont insérées dans le tube de la corolle. Les anthères, orbiculaires à étroitement oblongues, sont en général exsertes mais parfois incluses. Le pistil comprend un ovaire uni- ou biloculaire, avec un nombre variable d'ovules par loge, surmonté d'un style cylindrique moyennement long, sans division et d'un stigmate capité[3],[4].
+Les feuilles, pétiolées à parfois subsessiles, sont opposées-décussées, au limbe entier, présentant de 3 à 7 nervures près de la base et 1 à 3 paires de nervures secondaires, incurvées près du bord chez certaines espèces. Les stipules sont  absentes ou réduites à une arête ciliée, droite, reliant la base des pétioles,.
+Les inflorescences sont des cymes thyrsoïdes, axillaires ou terminales, simples ou paniculées, entourées de bractées en écailles. Les fleurs, pédicellées ou sessiles, ont une symétrie tétra- ou pentamère, et présentent un calice composé de 4 ou 5 lobes, parfois très profondément découpés, et une corolle en tube, campanulée ou en forme de plateau, avec 4 ou 5 lobes, à préfloraison valvaire. Les étamines, au nombre de 4 ou 5, à filaments courts, généralement filiformes, sont insérées dans le tube de la corolle. Les anthères, orbiculaires à étroitement oblongues, sont en général exsertes mais parfois incluses. Le pistil comprend un ovaire uni- ou biloculaire, avec un nombre variable d'ovules par loge, surmonté d'un style cylindrique moyennement long, sans division et d'un stigmate capité,.
 Les fruits sont des baies, généralement globuleuses à ellipsoïdes, de couleur orange ou rouge à maturité, à écorce dure, lisse à faiblement verruqueuse, glabre. La pulpe charnue, est généralement orange. 
-Les graines, plus ou moins  nombreuses (1 à 15), sont aplaties ou globuleuses, de forme circulaire à elliptique, au tégument soyeux, feutré ou scabre et glabre. Elles présentent un embryon spatulé petit, et un albumen corné et dur. Les cotylédons sont en forme de feuille[3],[4].
-Cytologie
-Le nombre chromosomique de base du genre Strychnos est x = 11 ou 12. Les cas de polyploïdie et dysploïdie sont nombreux.
-Le nombre diploïde de chromosomes chez les différentes espèces  du genre qui ont fait l'objet d'analyses varie de 2n =24 chez Strychnos spinosa, Strychnos nux-vomica et Strychnos  minor à 2n = 110 (décaploïde) chez Strychnos brasiliensis.
-La valeur la plus courante est 2n = 44, tandis que la valeur 2n = 36 est rencontrée chez Strychnos aculeata et 2n = 88  chez Strychnos angolensis et Strychnos malacoclados[5],[6].
+Les graines, plus ou moins  nombreuses (1 à 15), sont aplaties ou globuleuses, de forme circulaire à elliptique, au tégument soyeux, feutré ou scabre et glabre. Elles présentent un embryon spatulé petit, et un albumen corné et dur. Les cotylédons sont en forme de feuille,.
 </t>
         </is>
       </c>
@@ -580,15 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Propriétés</t>
+          <t>Caractéristiques générales</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorsque l'on évoque le nom Strychnos, ce sont donc les mots « strychnine », « poison », « mort-aux-rats » qui viennent généralement à l'esprit de tout un chacun. Or, contrairement à ce que ces idées préconçues pourraient laisser croire, la présence de strychnine dans le genre Strychnos semble relativement rare. Plusieurs espèces de lianes du genre Strychnos servent en revanche à la préparation de poisons appelés  curares.
-Les plantes du genre Strychnos sont riches en alcaloïdes, qui ont d'importantes activités biologiques et un grand intérêt médicinal. Plus de 300 alcaloïdes différents ont été isolés à partir de ces plantes.
-L'un des plus connus parmi ces alcaloïdes est la strychnine, mais sa présence n'a été démontrée que chez sept espèces : trois espèces asiatiques (Strychnos nux-vomica L., Strychnos ignatii P. Bergius et Strychnos wallichiana Steud ex DC.), une espèce australienne (Strychnos lucida R. Br.), deux espèces africaines (Strychnos icaja Baillon et Strychnos tienningsi)  et une espèce sud-américaine (Strychnos panamensis L.)[7].
-Certaines espèces sont même totalement inoffensives[réf. nécessaire], comme Strychnos innocua, dont le fruit est régulièrement consommé par la population locale, en Afrique.
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre chromosomique de base du genre Strychnos est x = 11 ou 12. Les cas de polyploïdie et dysploïdie sont nombreux.
+Le nombre diploïde de chromosomes chez les différentes espèces  du genre qui ont fait l'objet d'analyses varie de 2n =24 chez Strychnos spinosa, Strychnos nux-vomica et Strychnos  minor à 2n = 110 (décaploïde) chez Strychnos brasiliensis.
+La valeur la plus courante est 2n = 44, tandis que la valeur 2n = 36 est rencontrée chez Strychnos aculeata et 2n = 88  chez Strychnos angolensis et Strychnos malacoclados,.
 </t>
         </is>
       </c>
@@ -614,21 +631,128 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque l'on évoque le nom Strychnos, ce sont donc les mots « strychnine », « poison », « mort-aux-rats » qui viennent généralement à l'esprit de tout un chacun. Or, contrairement à ce que ces idées préconçues pourraient laisser croire, la présence de strychnine dans le genre Strychnos semble relativement rare. Plusieurs espèces de lianes du genre Strychnos servent en revanche à la préparation de poisons appelés  curares.
+Les plantes du genre Strychnos sont riches en alcaloïdes, qui ont d'importantes activités biologiques et un grand intérêt médicinal. Plus de 300 alcaloïdes différents ont été isolés à partir de ces plantes.
+L'un des plus connus parmi ces alcaloïdes est la strychnine, mais sa présence n'a été démontrée que chez sept espèces : trois espèces asiatiques (Strychnos nux-vomica L., Strychnos ignatii P. Bergius et Strychnos wallichiana Steud ex DC.), une espèce australienne (Strychnos lucida R. Br.), deux espèces africaines (Strychnos icaja Baillon et Strychnos tienningsi)  et une espèce sud-américaine (Strychnos panamensis L.).
+Certaines espèces sont même totalement inoffensives[réf. nécessaire], comme Strychnos innocua, dont le fruit est régulièrement consommé par la population locale, en Afrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strychnos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Strychnos appartient à la tribu des Strychneae, qui comprend également deux autres genres, Gardneria et Neuburgia. Les trois genres se ressemblent beaucoup par leur fleurs[8].
-A la suite des travaux de Leeuwenberg en 1969, le genre a été subdivisé en 12 sections, dont plusieurs ont été depuis reconnues comme étant polyphylétiques[9] :
-Synonymes
-Selon GRIN            (27 août 2019)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Strychnos appartient à la tribu des Strychneae, qui comprend également deux autres genres, Gardneria et Neuburgia. Les trois genres se ressemblent beaucoup par leur fleurs.
+A la suite des travaux de Leeuwenberg en 1969, le genre a été subdivisé en 12 sections, dont plusieurs ont été depuis reconnues comme étant polyphylétiques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strychnos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (27 août 2019) :
 Atherstonea Pappe
 Lasiostoma Schreb.
 Rouhamon Aubl.
-Scyphostrychnos S. Moore
-Liste d'espèces
-Selon The Plant List            (27 août 2019)[11] :
+Scyphostrychnos S. Moore</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strychnos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strychnos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (27 août 2019) :
 Strychnos aculeata Soler.
 Strychnos acuta Progel
 Strychnos afzelii Gilg
@@ -801,34 +925,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Strychnos</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Strychnos</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle du genre Strychnos comprend la plupart des régions tropicales et subtropicales du monde. Elle inclut notamment l'Amérique du Nord (Mexique), l'Amérique centrale et les Antilles et l'Amérique du Sud jusqu'au Paraguay, l'Afrique subsaharienne et Madagascar, le sous-continent indien, l'Asie du Sud et du Sud-Est (Sud de la Chine, péninsule indochinoise, Indonésie, Philippines), l'Australasie : Nouvelle-Guinée, Australie (Nouvelle-Galles du Sud, Queensland)[3].
-Les espèces du genre Strychnos se répartissent en trois groupes géographiques distincts : Afrique, Amérique et Asie-Australie. La seule exception est Strychnos potatorum qui se rencontre à la fois en Afrique et en Asie[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle du genre Strychnos comprend la plupart des régions tropicales et subtropicales du monde. Elle inclut notamment l'Amérique du Nord (Mexique), l'Amérique centrale et les Antilles et l'Amérique du Sud jusqu'au Paraguay, l'Afrique subsaharienne et Madagascar, le sous-continent indien, l'Asie du Sud et du Sud-Est (Sud de la Chine, péninsule indochinoise, Indonésie, Philippines), l'Australasie : Nouvelle-Guinée, Australie (Nouvelle-Galles du Sud, Queensland).
+Les espèces du genre Strychnos se répartissent en trois groupes géographiques distincts : Afrique, Amérique et Asie-Australie. La seule exception est Strychnos potatorum qui se rencontre à la fois en Afrique et en Asie.
 </t>
         </is>
       </c>
